--- a/biology/Botanique/Parc_Koganei/Parc_Koganei.xlsx
+++ b/biology/Botanique/Parc_Koganei/Parc_Koganei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Koganei (小金井公園, Koganei Kōen?) est un parc de Tokyo qui dessert les villes de Koganei, Kodaira, Nishitokyo et Musashino.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deuxième plus grand parc dans la zone métropolitaine de Tokyo, le parc Koganei est une attraction pour les résidents locaux et les touristes. 
 Le musée d'architecture en plein air d'Edo-Tokyo, inauguré en 1993, présente des bâtiments construits à différentes périodes historiques et d'autres construits par de célèbres architectes japonais. Les bâtiments ont été déplacés de leur emplacement d'origine et disposés sur le site du musée pour imiter la mise en place d'un village..
@@ -543,7 +557,9 @@
           <t>Caractéristiques principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardin de cerisiers
 Forêt de pruniers
